--- a/Brute-Force Check/vesselDetails11.xlsx
+++ b/Brute-Force Check/vesselDetails11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC20915-78ED-4152-A80A-A6EB967DE0DB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE8A79-9EEE-47B2-8730-ADC777AD5759}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -135,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,7 +149,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +498,7 @@
       <c r="G2" s="3">
         <v>4800</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <f>G2*0.15</f>
         <v>720</v>
       </c>
@@ -528,11 +528,10 @@
       <c r="G3" s="3">
         <v>4800</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <f t="shared" ref="H3:H11" si="2">G3*0.15</f>
         <v>720</v>
       </c>
-      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -558,11 +557,10 @@
       <c r="G4" s="3">
         <v>4800</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -588,11 +586,10 @@
       <c r="G5" s="3">
         <v>4800</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -618,11 +615,10 @@
       <c r="G6" s="3">
         <v>4800</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -648,11 +644,10 @@
       <c r="G7" s="3">
         <v>2000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -678,11 +673,10 @@
       <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -708,11 +702,10 @@
       <c r="G9" s="3">
         <v>4800</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -738,11 +731,10 @@
       <c r="G10" s="3">
         <v>4800</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -768,11 +760,10 @@
       <c r="G11" s="3">
         <v>2000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="I11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
